--- a/createtable/tablename.xlsx
+++ b/createtable/tablename.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xx\Desktop\stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\stockdatamanage\createtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F266239-820A-46FC-BD3D-73C7EEAFBF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D1E36-371E-4B86-8A78-2FDB03FAD80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="3060" windowWidth="18450" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14920" yWindow="2450" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>table</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,13 +85,44 @@
   </si>
   <si>
     <t>财报披露计划</t>
+  </si>
+  <si>
+    <t>index_basic</t>
+  </si>
+  <si>
+    <t>指数基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数日线行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_daily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数成分和权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_dailybasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘指数每日指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +136,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,8 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,18 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -436,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -444,7 +482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -452,7 +490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -460,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -468,7 +506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -476,7 +514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -484,17 +522,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>